--- a/statistic_report.xlsx
+++ b/statistic_report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t xml:space="preserve">Renfred </t>
   </si>
   <si>
-    <t>renfred@gmail.com</t>
+    <t>jontor.hebat@gmail.com</t>
   </si>
   <si>
     <t>renfredLeeman</t>
@@ -53,33 +53,6 @@
     <t>amandacryt</t>
   </si>
   <si>
-    <t>Aziz Akmal</t>
-  </si>
-  <si>
-    <t>aziz@gmail.com</t>
-  </si>
-  <si>
-    <t>aziz akmal</t>
-  </si>
-  <si>
-    <t>Giofari</t>
-  </si>
-  <si>
-    <t>gio@gmail.com</t>
-  </si>
-  <si>
-    <t>gio oktada</t>
-  </si>
-  <si>
-    <t>ahmad</t>
-  </si>
-  <si>
-    <t>ahm@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmad muad</t>
-  </si>
-  <si>
     <t>Agus</t>
   </si>
   <si>
@@ -102,15 +75,6 @@
   </si>
   <si>
     <t>sud@gmail.com</t>
-  </si>
-  <si>
-    <t>zizi</t>
-  </si>
-  <si>
-    <t>zizizi@gmail.com</t>
-  </si>
-  <si>
-    <t>ziziziz</t>
   </si>
   <si>
     <t>hamdan</t>
@@ -479,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1">
         <v>19</v>
@@ -566,10 +530,10 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -597,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -608,33 +572,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -642,10 +606,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -659,86 +623,18 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
         <v>0</v>
       </c>
     </row>
